--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15975" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,33 +21,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>mngr329169</t>
+    <t>mngr350471</t>
   </si>
   <si>
-    <t>devYsYg</t>
+    <t>rUpYzEs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,9 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
